--- a/src/test/resources/Documents/33237/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33237/Base/JobPlanning.xlsx
@@ -65,34 +65,47 @@
     <t>- - 4pp Text  4p</t>
   </si>
   <si>
+    <t>Imposition</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>134-Prepare files for CTP</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">169-Press Approval Task </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
     <t>Press Approval Task</t>
   </si>
   <si>
-    <t>Imposition</t>
-  </si>
-  <si>
-    <t>134-Prepare files for CTP</t>
-  </si>
-  <si>
     <t>- - 8pp Text  8p</t>
   </si>
   <si>
     <t>4pp Text  4p</t>
+  </si>
+  <si>
+    <t>Webpress 1x1</t>
+  </si>
+  <si>
+    <t>370-2-D-8 5/C Sheet</t>
+  </si>
+  <si>
+    <t>869,015</t>
+  </si>
+  <si>
+    <t>311-1-D-8 5/C Sheet
+370-2-D-8 5/C Sheet</t>
   </si>
   <si>
     <t>Fold</t>
@@ -113,19 +126,6 @@
 445-26" Stahl USA 6P Cont. (Gl
 418-26" Stahl 4P Pile
 440-26" Stahl 4P TD Cont</t>
-  </si>
-  <si>
-    <t>Webpress 1x1</t>
-  </si>
-  <si>
-    <t>370-2-D-8 5/C Sheet</t>
-  </si>
-  <si>
-    <t>869,015</t>
-  </si>
-  <si>
-    <t>311-1-D-8 5/C Sheet
-370-2-D-8 5/C Sheet</t>
   </si>
   <si>
     <t>4pp Text - Prepress</t>
@@ -1436,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>19</v>
@@ -1447,13 +1447,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="18">
         <v>23</v>
-      </c>
-      <c r="C3" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="18">
-        <v>24</v>
       </c>
       <c r="E3" t="s" s="19">
         <v>18</v>
@@ -1480,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1488,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s" s="30">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -1518,10 +1518,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1529,13 +1529,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="42">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="43">
         <v>18</v>
       </c>
       <c r="D5" t="s" s="44">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="45">
         <v>18</v>
@@ -1559,10 +1559,10 @@
         <v>18</v>
       </c>
       <c r="L5" t="s" s="52">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s" s="53">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1693,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s" s="94">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="95">
         <v>18</v>
